--- a/Build-Automation/authdetails.xlsx
+++ b/Build-Automation/authdetails.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrao2\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12610" windowHeight="2830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,20 +37,26 @@
     <t>knaskar</t>
   </si>
   <si>
-    <t>KaN721995!</t>
+    <t>KaN070295#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -98,10 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -400,20 +407,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
